--- a/app/data/static/samples/by_department/mozzarella/sample_schedule_mozzarella.xlsx
+++ b/app/data/static/samples/by_department/mozzarella/sample_schedule_mozzarella.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marklidenberg/Documents/coding/repos/nkrokhmal/umalat/app/data/static/samples/by_department/mozzarella/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE8897E-29E9-DE46-897C-5A325BF32BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19666398-A645-0343-A50C-B7E0DF1489BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Расписание" sheetId="1" r:id="rId1"/>
@@ -1904,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:TZ219"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="HW66" sqref="HW65:HX66"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="50" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AX9" sqref="AX9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15745,8 +15745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="16" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="16" ySplit="1" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
